--- a/proyectos/ejemplo1/8/4_elemento.xlsx
+++ b/proyectos/ejemplo1/8/4_elemento.xlsx
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.168256533578552</v>
+        <v>-32.16089653357908</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.94846346642197</v>
+        <v>-29.0368165335791</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.82438346642187</v>
+        <v>-25.91273653357869</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.70030346642181</v>
+        <v>-22.78865653357826</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.57622346642192</v>
+        <v>-19.66457653357855</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.452143466421544</v>
+        <v>-16.540496533578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.328063466421657</v>
+        <v>-13.41641653357864</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.203983466421681</v>
+        <v>-10.2923365335791</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9200965335786907</v>
+        <v>-7.168256533578247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.044176533578534</v>
+        <v>-4.044176533578007</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.168256533578423</v>
+        <v>-0.9200965335777663</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-10.29233653357893</v>
+        <v>2.203983466421769</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-13.41641653357855</v>
+        <v>5.328063466421129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-16.54049653357817</v>
+        <v>8.452143466421722</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-19.6645765335785</v>
+        <v>11.57622346642161</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-22.78865653357874</v>
+        <v>14.70030346642097</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-25.91273653357881</v>
+        <v>17.82438346642156</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-29.03681653357878</v>
+        <v>20.94846346642127</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9200965335795939</v>
+        <v>24.07254346642043</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1677.352061141301</v>
+        <v>4117.574222658763</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-798.2943902740601</v>
+        <v>2922.65827616597</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-41.23516748681282</v>
+        <v>1849.740777753168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593.8256072204211</v>
+        <v>898.8217274204068</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1106.887933847663</v>
+        <v>69.90112516763834</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1497.951812394906</v>
+        <v>-637.0210290051448</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1767.017242862119</v>
+        <v>-1221.944735097871</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1914.08422524937</v>
+        <v>-1684.869993110704</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1939.152759556585</v>
+        <v>-2025.796803043466</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1842.222845783807</v>
+        <v>-2244.725164896232</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1623.294483931034</v>
+        <v>-2341.655078668975</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1282.367673998265</v>
+        <v>-2316.586544361723</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819.4424159854526</v>
+        <v>-2169.519561974502</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>234.5187098927132</v>
+        <v>-1900.4541315073</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-472.4034442800699</v>
+        <v>-1509.390252960033</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1301.324046532835</v>
+        <v>-996.327926332839</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-2252.243096865637</v>
+        <v>-361.2671516256222</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3325.160595278407</v>
+        <v>395.7920711616177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-4520.076541771207</v>
+        <v>1274.849742028812</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.195921069325013e-18</v>
+        <v>-1.219024528012889e-17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04324691997990339</v>
+        <v>0.08774797512503844</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4204,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1406605729511209</v>
+        <v>0.3084647816943936</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4212,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2638535480385416</v>
+        <v>0.6235629969956872</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3883781304604359</v>
+        <v>0.9983948944099221</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4937263015284565</v>
+        <v>1.402252443411484</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5633297386476375</v>
+        <v>1.808367309568142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4244,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5845598153163943</v>
+        <v>2.193910854541042</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4252,7 +4252,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5487276011265254</v>
+        <v>2.539994136084718</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4510838617632094</v>
+        <v>2.83166790804708</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4268,7 +4268,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2908190590050077</v>
+        <v>3.057922620369422</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4276,7 +4276,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.07106335072386338</v>
+        <v>3.21168841908642</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2011134091148992</v>
+        <v>3.289835146326132</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.514701670452574</v>
+        <v>3.293172340309997</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4300,7 +4300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.854752187137072</v>
+        <v>3.226449235352837</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4308,7 +4308,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.202376016922925</v>
+        <v>3.098354761862852</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.534744521471281</v>
+        <v>2.921517546341628</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4324,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.825089366349909</v>
+        <v>2.712505911384128</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4332,7 +4332,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.042702521033192</v>
+        <v>2.491827875678701</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4340,7 +4340,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.152936258902135</v>
+        <v>2.283931154007075</v>
       </c>
     </row>
     <row r="22" spans="1:2">
